--- a/DemoSSs/ArtistTestImport.xlsx
+++ b/DemoSSs/ArtistTestImport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Surname</t>
   </si>
@@ -106,13 +106,34 @@
   </si>
   <si>
     <t>Lorenzo Ferrero</t>
+  </si>
+  <si>
+    <t>van Beethoven</t>
+  </si>
+  <si>
+    <t>Ludwig</t>
+  </si>
+  <si>
+    <t>http://en.wikipedia.org/wiki/Ludwig_van_Beethoven</t>
+  </si>
+  <si>
+    <t>17/12/1770</t>
+  </si>
+  <si>
+    <t>Ludwig van Beethoven</t>
+  </si>
+  <si>
+    <t>Johann</t>
+  </si>
+  <si>
+    <t>Bach</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +154,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,7 +182,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -166,6 +192,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -470,17 +500,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -602,6 +633,37 @@
       <c r="F6" t="s">
         <v>29</v>
       </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
@@ -612,9 +674,10 @@
     <hyperlink ref="C4" r:id="rId2"/>
     <hyperlink ref="C5" r:id="rId3"/>
     <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
